--- a/excel/AifianExecl.xlsx
+++ b/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="13680" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="14136" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new)" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
@@ -157,15 +157,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>數值參照(否則計算不準確)</t>
+    <t>七天收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一年收益(365天)</t>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>七天收益</t>
+    <t>數值參照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷史收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,31 +463,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,14 +499,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6898,9 +6909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CFD35-16DC-4140-9969-91D57CC1FD2A}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6923,22 +6934,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6967,7 +6978,7 @@
       <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="21">
@@ -6992,7 +7003,7 @@
       <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
       <c r="B4" s="21">
@@ -7017,7 +7028,7 @@
       <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
       <c r="B5" s="21">
@@ -7042,7 +7053,7 @@
       <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
       <c r="B6" s="21">
@@ -7067,7 +7078,7 @@
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="42">
         <v>6</v>
       </c>
       <c r="B7" s="21">
@@ -7092,7 +7103,7 @@
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="42">
         <v>7</v>
       </c>
       <c r="B8" s="21">
@@ -7117,7 +7128,7 @@
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -7142,7 +7153,7 @@
       <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="42">
         <v>9</v>
       </c>
       <c r="B10" s="21">
@@ -7169,7 +7180,7 @@
       <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="42">
         <v>10</v>
       </c>
       <c r="B11" s="21">
@@ -7194,7 +7205,7 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="42">
         <v>11</v>
       </c>
       <c r="B12" s="21">
@@ -7219,7 +7230,7 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="42">
         <v>12</v>
       </c>
       <c r="B13" s="21">
@@ -7244,7 +7255,7 @@
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="42">
         <v>13</v>
       </c>
       <c r="B14" s="21">
@@ -7271,7 +7282,7 @@
       <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="42">
         <v>14</v>
       </c>
       <c r="B15" s="21">
@@ -7296,7 +7307,7 @@
       <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="42">
         <v>15</v>
       </c>
       <c r="B16" s="21">
@@ -7321,7 +7332,7 @@
       <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="42">
         <v>16</v>
       </c>
       <c r="B17" s="21">
@@ -7346,7 +7357,7 @@
       <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="42">
         <v>17</v>
       </c>
       <c r="B18" s="21">
@@ -7373,7 +7384,7 @@
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="42">
         <v>18</v>
       </c>
       <c r="B19" s="21">
@@ -7403,7 +7414,7 @@
       <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="42">
         <v>19</v>
       </c>
       <c r="B20" s="21">
@@ -7430,7 +7441,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="42">
         <v>20</v>
       </c>
       <c r="B21" s="21">
@@ -7457,7 +7468,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="42">
         <v>21</v>
       </c>
       <c r="B22" s="21">
@@ -7484,7 +7495,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="42">
         <v>22</v>
       </c>
       <c r="B23" s="21">
@@ -7513,7 +7524,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="42">
         <v>23</v>
       </c>
       <c r="B24" s="21">
@@ -7540,7 +7551,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="42">
         <v>24</v>
       </c>
       <c r="B25" s="21">
@@ -7567,7 +7578,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="42">
         <v>25</v>
       </c>
       <c r="B26" s="21">
@@ -7594,7 +7605,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="42">
         <v>26</v>
       </c>
       <c r="B27" s="21">
@@ -7623,7 +7634,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="42">
         <v>27</v>
       </c>
       <c r="B28" s="21">
@@ -7650,7 +7661,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="42">
         <v>28</v>
       </c>
       <c r="B29" s="22">
@@ -7679,7 +7690,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="42">
         <v>29</v>
       </c>
       <c r="B30" s="21">
@@ -7706,7 +7717,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="42">
         <v>30</v>
       </c>
       <c r="B31" s="21">
@@ -7733,7 +7744,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="42">
         <v>31</v>
       </c>
       <c r="B32" s="21">
@@ -7760,7 +7771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="42">
         <v>32</v>
       </c>
       <c r="B33" s="21">
@@ -7787,7 +7798,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="42">
         <v>33</v>
       </c>
       <c r="B34" s="21">
@@ -7814,8 +7825,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>33</v>
+      <c r="A35" s="42">
+        <v>34</v>
       </c>
       <c r="B35" s="21">
         <v>43440</v>
@@ -7841,8 +7852,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
-        <v>33</v>
+      <c r="A36" s="42">
+        <v>35</v>
       </c>
       <c r="B36" s="21">
         <v>43447</v>
@@ -7870,8 +7881,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>34</v>
+      <c r="A37" s="42">
+        <v>36</v>
       </c>
       <c r="B37" s="21">
         <v>43454</v>
@@ -7899,8 +7910,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>35</v>
+      <c r="A38" s="42">
+        <v>37</v>
       </c>
       <c r="B38" s="21">
         <v>43461</v>
@@ -7926,8 +7937,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>36</v>
+      <c r="A39" s="42">
+        <v>38</v>
       </c>
       <c r="B39" s="21">
         <v>43468</v>
@@ -7953,8 +7964,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>37</v>
+      <c r="A40" s="42">
+        <v>39</v>
       </c>
       <c r="B40" s="21">
         <v>43475</v>
@@ -7980,8 +7991,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>38</v>
+      <c r="A41" s="42">
+        <v>40</v>
       </c>
       <c r="B41" s="21">
         <v>43482</v>
@@ -8003,8 +8014,8 @@
       <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>39</v>
+      <c r="A42" s="42">
+        <v>41</v>
       </c>
       <c r="B42" s="21">
         <v>43489</v>
@@ -8026,8 +8037,8 @@
       <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>40</v>
+      <c r="A43" s="42">
+        <v>42</v>
       </c>
       <c r="B43" s="21">
         <v>43496</v>
@@ -8049,8 +8060,8 @@
       <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>41</v>
+      <c r="A44" s="42">
+        <v>43</v>
       </c>
       <c r="B44" s="21">
         <v>43503</v>
@@ -8072,8 +8083,8 @@
       <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>42</v>
+      <c r="A45" s="42">
+        <v>44</v>
       </c>
       <c r="B45" s="21">
         <v>43510</v>
@@ -8095,8 +8106,8 @@
       <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>43</v>
+      <c r="A46" s="42">
+        <v>45</v>
       </c>
       <c r="B46" s="21">
         <v>43517</v>
@@ -8118,8 +8129,8 @@
       <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>44</v>
+      <c r="A47" s="42">
+        <v>46</v>
       </c>
       <c r="B47" s="21">
         <v>43524</v>
@@ -8141,8 +8152,8 @@
       <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>45</v>
+      <c r="A48" s="42">
+        <v>47</v>
       </c>
       <c r="B48" s="21">
         <v>43531</v>
@@ -8164,8 +8175,8 @@
       <c r="H48" s="40"/>
     </row>
     <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>46</v>
+      <c r="A49" s="42">
+        <v>48</v>
       </c>
       <c r="B49" s="21">
         <v>43538</v>
@@ -8187,8 +8198,8 @@
       <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>47</v>
+      <c r="A50" s="42">
+        <v>49</v>
       </c>
       <c r="B50" s="21">
         <v>43545</v>
@@ -8210,8 +8221,8 @@
       <c r="H50" s="40"/>
     </row>
     <row r="51" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>48</v>
+      <c r="A51" s="42">
+        <v>50</v>
       </c>
       <c r="B51" s="21">
         <v>43552</v>
@@ -8233,8 +8244,8 @@
       <c r="H51" s="40"/>
     </row>
     <row r="52" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <v>49</v>
+      <c r="A52" s="42">
+        <v>51</v>
       </c>
       <c r="B52" s="21">
         <v>43559</v>
@@ -8256,8 +8267,8 @@
       <c r="H52" s="40"/>
     </row>
     <row r="53" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>50</v>
+      <c r="A53" s="42">
+        <v>52</v>
       </c>
       <c r="B53" s="21">
         <v>43566</v>
@@ -8305,7 +8316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CB00CD-C915-4876-8BE8-2E19BF45D2B9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -8317,10 +8328,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
@@ -8370,6 +8381,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8389,10 +8401,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -8482,1143 +8494,1143 @@
         <v>5</v>
       </c>
       <c r="I1" s="2"/>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="48">
         <v>43209</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="45">
         <v>5.81</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="45">
         <v>174.3</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="45">
         <v>3.34</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="54" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="53">
+      <c r="K2" s="53"/>
+      <c r="L2" s="52">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="53"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="48">
         <v>43216</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="45">
         <v>6.13</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="45">
         <v>183.9</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="45">
         <v>3.52</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="J4" s="51" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="J4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52">
+      <c r="K4" s="50"/>
+      <c r="L4" s="51">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="48">
         <v>43223</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="45">
         <v>6.02</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="45">
         <v>180.6</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="45">
         <v>3.46</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="J6" s="51" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="J6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52">
+      <c r="K6" s="50"/>
+      <c r="L6" s="51">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>4</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="48">
         <v>43230</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="45">
         <v>5.96</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="45">
         <v>178.8</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="45">
         <v>3.42</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>5</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="48">
         <v>43237</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="45">
         <v>5.27</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="45">
         <v>158.1</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="45">
         <v>3.03</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>6</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="48">
         <v>43244</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="45">
         <v>6.13</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="45">
         <v>183.9</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="45">
         <v>3.52</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>7</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="48">
         <v>43251</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="45">
         <v>6.13</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="45">
         <v>183.9</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="45">
         <v>3.52</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>8</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="48">
         <v>43258</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="45">
         <v>6.15</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="45">
         <v>184.5</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="45">
         <v>3.53</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>9</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="48">
         <v>43265</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="45">
         <v>9.27</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="45">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="45">
         <v>5.33</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="55" t="s">
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="55"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>10</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="48">
         <v>43268</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="45">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="45">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="45">
         <v>5.82</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>11</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="48">
         <v>43279</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="45">
         <v>12.41</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="45">
         <v>372.3</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="45">
         <v>7.14</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>12</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="48">
         <v>43286</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="45">
         <v>19.71</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="45">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="45">
         <v>11.34</v>
       </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>13</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="48">
         <v>43293</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="45">
         <v>23</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="45">
         <v>690</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="45">
         <v>13.23</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="55" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="55"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>14</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="48">
         <v>43300</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="45">
         <v>14.97</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="45">
         <v>449.1</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="45">
         <v>8.61</v>
       </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44">
         <v>15</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="48">
         <v>43307</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="45">
         <v>7.67</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="45">
         <v>230.1</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="45">
         <v>4.41</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44">
         <v>16</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="48">
         <v>43314</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="45">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="45">
         <v>240.9</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="45">
         <v>4.62</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="44">
         <v>17</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="48">
         <v>43321</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="45">
         <v>6.21</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="45">
         <v>186.3</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="45">
         <v>3.5</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="45">
         <v>3000</v>
       </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="55" t="s">
+      <c r="G34" s="45"/>
+      <c r="H34" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="55"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="44">
         <v>18</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="48">
         <v>43328</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="45">
         <v>6.57</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="45">
         <v>197.1</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="45">
         <v>3.78</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43">
+      <c r="F36" s="45"/>
+      <c r="G36" s="45">
         <v>4</v>
       </c>
-      <c r="H36" s="43"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44">
         <v>19</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="48">
         <v>43335</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="45">
         <v>6.94</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="45">
         <v>208.2</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="45">
         <v>3.99</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43">
+      <c r="F38" s="45"/>
+      <c r="G38" s="45">
         <v>4</v>
       </c>
-      <c r="H38" s="43"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44">
         <v>20</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="48">
         <v>43342</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="45">
         <v>6.21</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="45">
         <v>186.3</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="45">
         <v>3.57</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43">
+      <c r="F40" s="45"/>
+      <c r="G40" s="45">
         <v>4</v>
       </c>
-      <c r="H40" s="43"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="44">
         <v>21</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="48">
         <v>43349</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="45">
         <v>6.21</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="45">
         <v>186.3</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="45">
         <v>3.57</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43">
+      <c r="F42" s="45"/>
+      <c r="G42" s="45">
         <v>4</v>
       </c>
-      <c r="H42" s="43"/>
+      <c r="H42" s="45"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="44"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44">
         <v>22</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="48">
         <v>43356</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="45">
         <v>7.67</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="45">
         <v>230.1</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="45">
         <v>4.41</v>
       </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43">
+      <c r="F44" s="45"/>
+      <c r="G44" s="45">
         <v>4</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="H44" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="48"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="54"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44">
         <v>23</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="48">
         <v>43363</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="45">
         <v>6.94</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="45">
         <v>208.2</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="45">
         <v>3.99</v>
       </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43">
+      <c r="F46" s="45"/>
+      <c r="G46" s="45">
         <v>4</v>
       </c>
-      <c r="H46" s="43"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44">
         <v>24</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="48">
         <v>43370</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="45">
         <v>6.57</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="45">
         <v>197.1</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="45">
         <v>3.78</v>
       </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43">
+      <c r="F48" s="45"/>
+      <c r="G48" s="45">
         <v>4</v>
       </c>
-      <c r="H48" s="43"/>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="44">
         <v>25</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="48">
         <v>43377</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="45">
         <v>6.21</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="45">
         <v>186.3</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="45">
         <v>3.57</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43">
+      <c r="F50" s="45"/>
+      <c r="G50" s="45">
         <v>4</v>
       </c>
-      <c r="H50" s="43"/>
+      <c r="H50" s="45"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44">
         <v>26</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="48">
         <v>43384</v>
       </c>
-      <c r="C52" s="43">
+      <c r="C52" s="45">
         <v>6.57</v>
       </c>
-      <c r="D52" s="43">
+      <c r="D52" s="45">
         <v>197.1</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="45">
         <v>3.78</v>
       </c>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43">
+      <c r="F52" s="45"/>
+      <c r="G52" s="45">
         <v>4</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="54" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="48"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44">
         <v>27</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="48">
         <v>43391</v>
       </c>
-      <c r="C54" s="43">
+      <c r="C54" s="45">
         <v>6.21</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="45">
         <v>186.3</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="45">
         <v>3.57</v>
       </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43">
+      <c r="F54" s="45"/>
+      <c r="G54" s="45">
         <v>4</v>
       </c>
-      <c r="H54" s="43"/>
+      <c r="H54" s="45"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44">
         <v>28</v>
       </c>
-      <c r="B56" s="50">
+      <c r="B56" s="55">
         <v>43398</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="56">
         <v>5.84</v>
       </c>
-      <c r="D56" s="49">
+      <c r="D56" s="56">
         <v>175.2</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="56">
         <v>3.36</v>
       </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49">
+      <c r="F56" s="56"/>
+      <c r="G56" s="56">
         <v>3</v>
       </c>
-      <c r="H56" s="49" t="s">
+      <c r="H56" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="44"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="44">
         <v>29</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="48">
         <v>43405</v>
       </c>
-      <c r="C58" s="43">
+      <c r="C58" s="45">
         <v>6.21</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="45">
         <v>186.3</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="45">
         <v>3.57</v>
       </c>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43">
+      <c r="F58" s="45"/>
+      <c r="G58" s="45">
         <v>4</v>
       </c>
-      <c r="H58" s="43"/>
+      <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="44"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44">
         <v>30</v>
       </c>
-      <c r="B60" s="45">
+      <c r="B60" s="48">
         <v>43413</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="45">
         <v>5.84</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="56">
         <v>175.2</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="56">
         <v>3.36</v>
       </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49">
+      <c r="F60" s="56"/>
+      <c r="G60" s="56">
         <v>3</v>
       </c>
-      <c r="H60" s="43"/>
+      <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="44"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="43"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="45"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44">
         <v>31</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="48">
         <v>43419</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="45">
         <v>5.48</v>
       </c>
-      <c r="D62" s="49">
+      <c r="D62" s="56">
         <v>164.4</v>
       </c>
-      <c r="E62" s="49">
+      <c r="E62" s="56">
         <v>3.15</v>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49">
+      <c r="F62" s="56"/>
+      <c r="G62" s="56">
         <v>3</v>
       </c>
-      <c r="H62" s="43"/>
+      <c r="H62" s="45"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="44"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="43"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="45"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="44">
         <v>32</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="48">
         <v>43426</v>
       </c>
-      <c r="C64" s="43">
+      <c r="C64" s="45">
         <v>6.21</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="45">
         <v>186.3</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="45">
         <v>3.57</v>
       </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43">
+      <c r="F64" s="45"/>
+      <c r="G64" s="45">
         <v>4</v>
       </c>
-      <c r="H64" s="43"/>
+      <c r="H64" s="45"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="44"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="44">
         <v>33</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="48">
         <v>43433</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="45">
         <v>6.57</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="45">
         <v>197.1</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="45">
         <v>3.78</v>
       </c>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43">
+      <c r="F66" s="45"/>
+      <c r="G66" s="45">
         <v>4</v>
       </c>
-      <c r="H66" s="43"/>
+      <c r="H66" s="45"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="44"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="44">
         <v>33</v>
       </c>
-      <c r="B68" s="45">
+      <c r="B68" s="48">
         <v>43440</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="45">
         <v>5.48</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D68" s="56">
         <v>164.4</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="56">
         <v>3.15</v>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49">
+      <c r="F68" s="56"/>
+      <c r="G68" s="56">
         <v>3</v>
       </c>
-      <c r="H68" s="43"/>
+      <c r="H68" s="45"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="44"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="43"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="45"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="44">
         <v>33</v>
       </c>
-      <c r="B70" s="45">
+      <c r="B70" s="48">
         <v>43447</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="45">
         <v>6.57</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="45">
         <v>197.1</v>
       </c>
-      <c r="E70" s="43">
+      <c r="E70" s="45">
         <v>3.78</v>
       </c>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43">
+      <c r="F70" s="45"/>
+      <c r="G70" s="45">
         <v>4</v>
       </c>
-      <c r="H70" s="48" t="s">
+      <c r="H70" s="54" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -9627,112 +9639,256 @@
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="44"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="48"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="54"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="44">
         <v>34</v>
       </c>
-      <c r="B72" s="45">
+      <c r="B72" s="48">
         <v>43454</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="45">
         <v>6.21</v>
       </c>
-      <c r="D72" s="43">
+      <c r="D72" s="45">
         <v>186.3</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="45">
         <v>3.57</v>
       </c>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43">
+      <c r="F72" s="45"/>
+      <c r="G72" s="45">
         <v>4</v>
       </c>
-      <c r="H72" s="46"/>
+      <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="44"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="47"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B14:B15"/>
@@ -9757,214 +9913,70 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/AifianExecl.xlsx
+++ b/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="14136" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15504" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new)" sheetId="2" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,25 +466,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,20 +508,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,6 +763,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.7599999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,7 +2344,7 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>262.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,7 +4311,7 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.0400000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6910,8 +6916,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7003,7 +7009,7 @@
       <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
       <c r="B4" s="21">
@@ -7028,7 +7034,7 @@
       <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42">
+      <c r="A5" s="43">
         <v>4</v>
       </c>
       <c r="B5" s="21">
@@ -7053,7 +7059,7 @@
       <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="43">
         <v>5</v>
       </c>
       <c r="B6" s="21">
@@ -7078,7 +7084,7 @@
       <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
+      <c r="A7" s="43">
         <v>6</v>
       </c>
       <c r="B7" s="21">
@@ -7103,7 +7109,7 @@
       <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="43">
         <v>7</v>
       </c>
       <c r="B8" s="21">
@@ -7128,7 +7134,7 @@
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
+      <c r="A9" s="43">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -7153,7 +7159,7 @@
       <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="43">
         <v>9</v>
       </c>
       <c r="B10" s="21">
@@ -7180,7 +7186,7 @@
       <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+      <c r="A11" s="43">
         <v>10</v>
       </c>
       <c r="B11" s="21">
@@ -7205,7 +7211,7 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="43">
         <v>11</v>
       </c>
       <c r="B12" s="21">
@@ -7230,7 +7236,7 @@
       <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42">
+      <c r="A13" s="43">
         <v>12</v>
       </c>
       <c r="B13" s="21">
@@ -7255,7 +7261,7 @@
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="43">
         <v>13</v>
       </c>
       <c r="B14" s="21">
@@ -7282,7 +7288,7 @@
       <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42">
+      <c r="A15" s="43">
         <v>14</v>
       </c>
       <c r="B15" s="21">
@@ -7307,7 +7313,7 @@
       <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="43">
         <v>15</v>
       </c>
       <c r="B16" s="21">
@@ -7332,7 +7338,7 @@
       <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42">
+      <c r="A17" s="43">
         <v>16</v>
       </c>
       <c r="B17" s="21">
@@ -7357,7 +7363,7 @@
       <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="43">
         <v>17</v>
       </c>
       <c r="B18" s="21">
@@ -7384,7 +7390,7 @@
       <c r="H18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42">
+      <c r="A19" s="43">
         <v>18</v>
       </c>
       <c r="B19" s="21">
@@ -7414,7 +7420,7 @@
       <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="43">
         <v>19</v>
       </c>
       <c r="B20" s="21">
@@ -7441,7 +7447,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
+      <c r="A21" s="43">
         <v>20</v>
       </c>
       <c r="B21" s="21">
@@ -7468,7 +7474,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="43">
         <v>21</v>
       </c>
       <c r="B22" s="21">
@@ -7495,7 +7501,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42">
+      <c r="A23" s="43">
         <v>22</v>
       </c>
       <c r="B23" s="21">
@@ -7524,7 +7530,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="43">
         <v>23</v>
       </c>
       <c r="B24" s="21">
@@ -7551,7 +7557,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42">
+      <c r="A25" s="43">
         <v>24</v>
       </c>
       <c r="B25" s="21">
@@ -7578,7 +7584,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="43">
         <v>25</v>
       </c>
       <c r="B26" s="21">
@@ -7605,7 +7611,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42">
+      <c r="A27" s="43">
         <v>26</v>
       </c>
       <c r="B27" s="21">
@@ -7634,7 +7640,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="43">
         <v>27</v>
       </c>
       <c r="B28" s="21">
@@ -7661,7 +7667,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42">
+      <c r="A29" s="43">
         <v>28</v>
       </c>
       <c r="B29" s="22">
@@ -7690,7 +7696,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="43">
         <v>29</v>
       </c>
       <c r="B30" s="21">
@@ -7717,7 +7723,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42">
+      <c r="A31" s="43">
         <v>30</v>
       </c>
       <c r="B31" s="21">
@@ -7744,7 +7750,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="43">
         <v>31</v>
       </c>
       <c r="B32" s="21">
@@ -7771,7 +7777,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42">
+      <c r="A33" s="43">
         <v>32</v>
       </c>
       <c r="B33" s="21">
@@ -7798,7 +7804,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="43">
         <v>33</v>
       </c>
       <c r="B34" s="21">
@@ -7825,7 +7831,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42">
+      <c r="A35" s="43">
         <v>34</v>
       </c>
       <c r="B35" s="21">
@@ -7852,7 +7858,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="43">
         <v>35</v>
       </c>
       <c r="B36" s="21">
@@ -7881,7 +7887,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42">
+      <c r="A37" s="43">
         <v>36</v>
       </c>
       <c r="B37" s="21">
@@ -7910,7 +7916,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="43">
         <v>37</v>
       </c>
       <c r="B38" s="21">
@@ -7937,7 +7943,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42">
+      <c r="A39" s="43">
         <v>38</v>
       </c>
       <c r="B39" s="21">
@@ -7964,7 +7970,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="43">
         <v>39</v>
       </c>
       <c r="B40" s="21">
@@ -7991,30 +7997,34 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42">
+      <c r="A41" s="43">
         <v>40</v>
       </c>
       <c r="B41" s="21">
         <v>43482</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="25">
+        <v>8.7599999999999997E-2</v>
+      </c>
       <c r="D41" s="31">
         <f>投資金額!$B$2*'收益紀錄表(new)'!C41</f>
-        <v>0</v>
+        <v>262.8</v>
       </c>
       <c r="E41" s="31">
         <f>D41/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>5.0400000000000009</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0400000000000009</v>
       </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="40"/>
+      <c r="H41" s="40">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="43">
         <v>41</v>
       </c>
       <c r="B42" s="21">
@@ -8037,7 +8047,7 @@
       <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42">
+      <c r="A43" s="43">
         <v>42</v>
       </c>
       <c r="B43" s="21">
@@ -8060,7 +8070,7 @@
       <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="43">
         <v>43</v>
       </c>
       <c r="B44" s="21">
@@ -8083,7 +8093,7 @@
       <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42">
+      <c r="A45" s="43">
         <v>44</v>
       </c>
       <c r="B45" s="21">
@@ -8106,7 +8116,7 @@
       <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="43">
         <v>45</v>
       </c>
       <c r="B46" s="21">
@@ -8129,7 +8139,7 @@
       <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42">
+      <c r="A47" s="43">
         <v>46</v>
       </c>
       <c r="B47" s="21">
@@ -8152,7 +8162,7 @@
       <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="43">
         <v>47</v>
       </c>
       <c r="B48" s="21">
@@ -8175,7 +8185,7 @@
       <c r="H48" s="40"/>
     </row>
     <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42">
+      <c r="A49" s="43">
         <v>48</v>
       </c>
       <c r="B49" s="21">
@@ -8198,7 +8208,7 @@
       <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="43">
         <v>49</v>
       </c>
       <c r="B50" s="21">
@@ -8221,7 +8231,7 @@
       <c r="H50" s="40"/>
     </row>
     <row r="51" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42">
+      <c r="A51" s="43">
         <v>50</v>
       </c>
       <c r="B51" s="21">
@@ -8244,7 +8254,7 @@
       <c r="H51" s="40"/>
     </row>
     <row r="52" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="43">
         <v>51</v>
       </c>
       <c r="B52" s="21">
@@ -8267,7 +8277,7 @@
       <c r="H52" s="40"/>
     </row>
     <row r="53" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42">
+      <c r="A53" s="43">
         <v>52</v>
       </c>
       <c r="B53" s="21">
@@ -8328,10 +8338,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
@@ -8369,7 +8379,7 @@
       </c>
       <c r="B5" s="32">
         <f>SUM('收益紀錄表(new)'!H19:H53)+1</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>28</v>
@@ -8401,10 +8411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -8412,7 +8422,7 @@
       </c>
       <c r="B2" s="28">
         <f>SUM('收益紀錄表(new)'!C2:C100)/50</f>
-        <v>6.0794000000000008E-2</v>
+        <v>6.2546000000000004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -8421,7 +8431,7 @@
       </c>
       <c r="B3" s="19">
         <f>SUM('收益紀錄表(new)'!E2:E100)/50</f>
-        <v>3.4977369863013705</v>
+        <v>3.5985369863013705</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -8430,7 +8440,7 @@
       </c>
       <c r="B4" s="18">
         <f>SUM('收益紀錄表(new)'!D2:D100)/50</f>
-        <v>182.38200000000001</v>
+        <v>187.63800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8494,18 +8504,18 @@
         <v>5</v>
       </c>
       <c r="I1" s="2"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="47">
         <v>43209</v>
       </c>
       <c r="C2" s="45">
@@ -8520,37 +8530,37 @@
       <c r="F2" s="45"/>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="53" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52">
+      <c r="K2" s="56"/>
+      <c r="L2" s="55">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="52"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="48"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="47">
         <v>43216</v>
       </c>
       <c r="C4" s="45">
@@ -8565,35 +8575,35 @@
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="51">
+      <c r="K4" s="53"/>
+      <c r="L4" s="54">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="51"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="A6" s="46">
         <v>3</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="47">
         <v>43223</v>
       </c>
       <c r="C6" s="45">
@@ -8608,35 +8618,35 @@
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51">
+      <c r="K6" s="53"/>
+      <c r="L6" s="54">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
       <c r="H7" s="45"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
+      <c r="A8" s="46">
         <v>4</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="47">
         <v>43230</v>
       </c>
       <c r="C8" s="45">
@@ -8653,8 +8663,8 @@
       <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
@@ -8663,10 +8673,10 @@
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
+      <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="47">
         <v>43237</v>
       </c>
       <c r="C10" s="45">
@@ -8683,8 +8693,8 @@
       <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -8693,10 +8703,10 @@
       <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="47">
         <v>43244</v>
       </c>
       <c r="C12" s="45">
@@ -8713,8 +8723,8 @@
       <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
@@ -8723,10 +8733,10 @@
       <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
+      <c r="A14" s="46">
         <v>7</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <v>43251</v>
       </c>
       <c r="C14" s="45">
@@ -8743,8 +8753,8 @@
       <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
@@ -8753,10 +8763,10 @@
       <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16" s="46">
         <v>8</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="47">
         <v>43258</v>
       </c>
       <c r="C16" s="45">
@@ -8773,8 +8783,8 @@
       <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -8783,10 +8793,10 @@
       <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
+      <c r="A18" s="46">
         <v>9</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="47">
         <v>43265</v>
       </c>
       <c r="C18" s="45">
@@ -8800,25 +8810,25 @@
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
-      <c r="H19" s="49"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44">
+      <c r="A20" s="46">
         <v>10</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="47">
         <v>43268</v>
       </c>
       <c r="C20" s="45">
@@ -8835,8 +8845,8 @@
       <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
@@ -8845,10 +8855,10 @@
       <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44">
+      <c r="A22" s="46">
         <v>11</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="47">
         <v>43279</v>
       </c>
       <c r="C22" s="45">
@@ -8865,8 +8875,8 @@
       <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -8875,10 +8885,10 @@
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44">
+      <c r="A24" s="46">
         <v>12</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="47">
         <v>43286</v>
       </c>
       <c r="C24" s="45">
@@ -8895,8 +8905,8 @@
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -8905,10 +8915,10 @@
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44">
+      <c r="A26" s="46">
         <v>13</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="47">
         <v>43293</v>
       </c>
       <c r="C26" s="45">
@@ -8922,25 +8932,25 @@
       </c>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
-      <c r="H27" s="49"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44">
+      <c r="A28" s="46">
         <v>14</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="47">
         <v>43300</v>
       </c>
       <c r="C28" s="45">
@@ -8957,8 +8967,8 @@
       <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
@@ -8967,10 +8977,10 @@
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44">
+      <c r="A30" s="46">
         <v>15</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="47">
         <v>43307</v>
       </c>
       <c r="C30" s="45">
@@ -8987,8 +8997,8 @@
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
@@ -8997,10 +9007,10 @@
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="44">
+      <c r="A32" s="46">
         <v>16</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="47">
         <v>43314</v>
       </c>
       <c r="C32" s="45">
@@ -9017,8 +9027,8 @@
       <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
@@ -9027,10 +9037,10 @@
       <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44">
+      <c r="A34" s="46">
         <v>17</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="47">
         <v>43321</v>
       </c>
       <c r="C34" s="45">
@@ -9046,25 +9056,25 @@
         <v>3000</v>
       </c>
       <c r="G34" s="45"/>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
       <c r="F35" s="45"/>
       <c r="G35" s="45"/>
-      <c r="H35" s="49"/>
+      <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44">
+      <c r="A36" s="46">
         <v>18</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="47">
         <v>43328</v>
       </c>
       <c r="C36" s="45">
@@ -9083,8 +9093,8 @@
       <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
@@ -9093,10 +9103,10 @@
       <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44">
+      <c r="A38" s="46">
         <v>19</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="47">
         <v>43335</v>
       </c>
       <c r="C38" s="45">
@@ -9115,8 +9125,8 @@
       <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
@@ -9125,10 +9135,10 @@
       <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="44">
+      <c r="A40" s="46">
         <v>20</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B40" s="47">
         <v>43342</v>
       </c>
       <c r="C40" s="45">
@@ -9147,8 +9157,8 @@
       <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
@@ -9157,10 +9167,10 @@
       <c r="H41" s="45"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="44">
+      <c r="A42" s="46">
         <v>21</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="47">
         <v>43349</v>
       </c>
       <c r="C42" s="45">
@@ -9179,8 +9189,8 @@
       <c r="H42" s="45"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -9189,10 +9199,10 @@
       <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44">
+      <c r="A44" s="46">
         <v>22</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="47">
         <v>43356</v>
       </c>
       <c r="C44" s="45">
@@ -9208,25 +9218,25 @@
       <c r="G44" s="45">
         <v>4</v>
       </c>
-      <c r="H44" s="54" t="s">
+      <c r="H44" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="45"/>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
-      <c r="H45" s="54"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44">
+      <c r="A46" s="46">
         <v>23</v>
       </c>
-      <c r="B46" s="48">
+      <c r="B46" s="47">
         <v>43363</v>
       </c>
       <c r="C46" s="45">
@@ -9245,7 +9255,7 @@
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
@@ -9255,10 +9265,10 @@
       <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44">
+      <c r="A48" s="46">
         <v>24</v>
       </c>
-      <c r="B48" s="48">
+      <c r="B48" s="47">
         <v>43370</v>
       </c>
       <c r="C48" s="45">
@@ -9277,7 +9287,7 @@
       <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -9287,10 +9297,10 @@
       <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44">
+      <c r="A50" s="46">
         <v>25</v>
       </c>
-      <c r="B50" s="48">
+      <c r="B50" s="47">
         <v>43377</v>
       </c>
       <c r="C50" s="45">
@@ -9309,7 +9319,7 @@
       <c r="H50" s="45"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
@@ -9319,10 +9329,10 @@
       <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="44">
+      <c r="A52" s="46">
         <v>26</v>
       </c>
-      <c r="B52" s="48">
+      <c r="B52" s="47">
         <v>43384</v>
       </c>
       <c r="C52" s="45">
@@ -9338,25 +9348,25 @@
       <c r="G52" s="45">
         <v>4</v>
       </c>
-      <c r="H52" s="54" t="s">
+      <c r="H52" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="45"/>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
       <c r="G53" s="45"/>
-      <c r="H53" s="54"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44">
+      <c r="A54" s="46">
         <v>27</v>
       </c>
-      <c r="B54" s="48">
+      <c r="B54" s="47">
         <v>43391</v>
       </c>
       <c r="C54" s="45">
@@ -9375,7 +9385,7 @@
       <c r="H54" s="45"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
@@ -9385,44 +9395,44 @@
       <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44">
+      <c r="A56" s="46">
         <v>28</v>
       </c>
-      <c r="B56" s="55">
+      <c r="B56" s="52">
         <v>43398</v>
       </c>
-      <c r="C56" s="56">
+      <c r="C56" s="51">
         <v>5.84</v>
       </c>
-      <c r="D56" s="56">
+      <c r="D56" s="51">
         <v>175.2</v>
       </c>
-      <c r="E56" s="56">
+      <c r="E56" s="51">
         <v>3.36</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56">
+      <c r="F56" s="51"/>
+      <c r="G56" s="51">
         <v>3</v>
       </c>
-      <c r="H56" s="56" t="s">
+      <c r="H56" s="51" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="44">
+      <c r="A58" s="46">
         <v>29</v>
       </c>
-      <c r="B58" s="48">
+      <c r="B58" s="47">
         <v>43405</v>
       </c>
       <c r="C58" s="45">
@@ -9441,7 +9451,7 @@
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="44"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="45"/>
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
@@ -9451,74 +9461,74 @@
       <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="44">
+      <c r="A60" s="46">
         <v>30</v>
       </c>
-      <c r="B60" s="48">
+      <c r="B60" s="47">
         <v>43413</v>
       </c>
       <c r="C60" s="45">
         <v>5.84</v>
       </c>
-      <c r="D60" s="56">
+      <c r="D60" s="51">
         <v>175.2</v>
       </c>
-      <c r="E60" s="56">
+      <c r="E60" s="51">
         <v>3.36</v>
       </c>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56">
+      <c r="F60" s="51"/>
+      <c r="G60" s="51">
         <v>3</v>
       </c>
       <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
       <c r="H61" s="45"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44">
+      <c r="A62" s="46">
         <v>31</v>
       </c>
-      <c r="B62" s="48">
+      <c r="B62" s="47">
         <v>43419</v>
       </c>
       <c r="C62" s="45">
         <v>5.48</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="51">
         <v>164.4</v>
       </c>
-      <c r="E62" s="56">
+      <c r="E62" s="51">
         <v>3.15</v>
       </c>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56">
+      <c r="F62" s="51"/>
+      <c r="G62" s="51">
         <v>3</v>
       </c>
       <c r="H62" s="45"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
       <c r="H63" s="45"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44">
+      <c r="A64" s="46">
         <v>32</v>
       </c>
-      <c r="B64" s="48">
+      <c r="B64" s="47">
         <v>43426</v>
       </c>
       <c r="C64" s="45">
@@ -9537,7 +9547,7 @@
       <c r="H64" s="45"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
@@ -9547,10 +9557,10 @@
       <c r="H65" s="45"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="44">
+      <c r="A66" s="46">
         <v>33</v>
       </c>
-      <c r="B66" s="48">
+      <c r="B66" s="47">
         <v>43433</v>
       </c>
       <c r="C66" s="45">
@@ -9569,7 +9579,7 @@
       <c r="H66" s="45"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="44"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
@@ -9579,42 +9589,42 @@
       <c r="H67" s="45"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="44">
+      <c r="A68" s="46">
         <v>33</v>
       </c>
-      <c r="B68" s="48">
+      <c r="B68" s="47">
         <v>43440</v>
       </c>
       <c r="C68" s="45">
         <v>5.48</v>
       </c>
-      <c r="D68" s="56">
+      <c r="D68" s="51">
         <v>164.4</v>
       </c>
-      <c r="E68" s="56">
+      <c r="E68" s="51">
         <v>3.15</v>
       </c>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56">
+      <c r="F68" s="51"/>
+      <c r="G68" s="51">
         <v>3</v>
       </c>
       <c r="H68" s="45"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="44"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
       <c r="H69" s="45"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="44">
+      <c r="A70" s="46">
         <v>33</v>
       </c>
-      <c r="B70" s="48">
+      <c r="B70" s="47">
         <v>43447</v>
       </c>
       <c r="C70" s="45">
@@ -9630,7 +9640,7 @@
       <c r="G70" s="45">
         <v>4</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="50" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -9638,20 +9648,20 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="44"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
-      <c r="H71" s="54"/>
+      <c r="H71" s="50"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="44">
+      <c r="A72" s="46">
         <v>34</v>
       </c>
-      <c r="B72" s="48">
+      <c r="B72" s="47">
         <v>43454</v>
       </c>
       <c r="C72" s="45">
@@ -9667,20 +9677,292 @@
       <c r="G72" s="45">
         <v>4</v>
       </c>
-      <c r="H72" s="57"/>
+      <c r="H72" s="48"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
-      <c r="H73" s="58"/>
+      <c r="H73" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
@@ -9705,278 +9987,6 @@
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/AifianExecl.xlsx
+++ b/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15504" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15960" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new)" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>日期</t>
   </si>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>歷史收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HF今日加碼3萬，所以Aifian總額為33000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,28 +476,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,14 +506,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6915,9 +6919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CFD35-16DC-4140-9969-91D57CC1FD2A}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6969,15 +6973,12 @@
         <v>5.8099999999999999E-2</v>
       </c>
       <c r="D2" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C2</f>
         <v>174.29999999999998</v>
       </c>
       <c r="E2" s="31">
-        <f>D2/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.3427397260273972</v>
       </c>
       <c r="F2" s="30">
-        <f>E2</f>
         <v>3.3427397260273972</v>
       </c>
       <c r="G2" s="5"/>
@@ -6994,15 +6995,12 @@
         <v>6.13E-2</v>
       </c>
       <c r="D3" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C3</f>
         <v>183.9</v>
       </c>
       <c r="E3" s="31">
-        <f>D3/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.5268493150684934</v>
       </c>
       <c r="F3" s="30">
-        <f t="shared" ref="F3:F53" si="0">E3</f>
         <v>3.5268493150684934</v>
       </c>
       <c r="G3" s="5"/>
@@ -7019,15 +7017,12 @@
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="D4" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C4</f>
         <v>180.6</v>
       </c>
       <c r="E4" s="31">
-        <f>D4/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.4635616438356163</v>
       </c>
       <c r="F4" s="30">
-        <f t="shared" si="0"/>
         <v>3.4635616438356163</v>
       </c>
       <c r="G4" s="5"/>
@@ -7044,15 +7039,12 @@
         <v>5.96E-2</v>
       </c>
       <c r="D5" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C5</f>
         <v>178.8</v>
       </c>
       <c r="E5" s="31">
-        <f>D5/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.429041095890411</v>
       </c>
       <c r="F5" s="30">
-        <f t="shared" si="0"/>
         <v>3.429041095890411</v>
       </c>
       <c r="G5" s="5"/>
@@ -7069,15 +7061,12 @@
         <v>5.2699999999999997E-2</v>
       </c>
       <c r="D6" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C6</f>
         <v>158.1</v>
       </c>
       <c r="E6" s="31">
-        <f>D6/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.0320547945205476</v>
       </c>
       <c r="F6" s="30">
-        <f t="shared" si="0"/>
         <v>3.0320547945205476</v>
       </c>
       <c r="G6" s="5"/>
@@ -7094,15 +7083,12 @@
         <v>6.13E-2</v>
       </c>
       <c r="D7" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C7</f>
         <v>183.9</v>
       </c>
       <c r="E7" s="31">
-        <f>D7/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.5268493150684934</v>
       </c>
       <c r="F7" s="30">
-        <f t="shared" si="0"/>
         <v>3.5268493150684934</v>
       </c>
       <c r="G7" s="5"/>
@@ -7119,15 +7105,12 @@
         <v>6.13E-2</v>
       </c>
       <c r="D8" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C8</f>
         <v>183.9</v>
       </c>
       <c r="E8" s="31">
-        <f>D8/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.5268493150684934</v>
       </c>
       <c r="F8" s="30">
-        <f t="shared" si="0"/>
         <v>3.5268493150684934</v>
       </c>
       <c r="G8" s="5"/>
@@ -7144,15 +7127,12 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="D9" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C9</f>
         <v>184.5</v>
       </c>
       <c r="E9" s="31">
-        <f>D9/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.5383561643835613</v>
       </c>
       <c r="F9" s="30">
-        <f t="shared" si="0"/>
         <v>3.5383561643835613</v>
       </c>
       <c r="G9" s="5"/>
@@ -7169,15 +7149,12 @@
         <v>9.2700000000000005E-2</v>
       </c>
       <c r="D10" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C10</f>
         <v>278.10000000000002</v>
       </c>
       <c r="E10" s="31">
-        <f>D10/投資金額!$B$3*投資金額!$B$4</f>
         <v>5.3334246575342465</v>
       </c>
       <c r="F10" s="30">
-        <f t="shared" si="0"/>
         <v>5.3334246575342465</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -7196,15 +7173,12 @@
         <v>0.1013</v>
       </c>
       <c r="D11" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C11</f>
         <v>303.89999999999998</v>
       </c>
       <c r="E11" s="31">
-        <f>D11/投資金額!$B$3*投資金額!$B$4</f>
         <v>5.8282191780821915</v>
       </c>
       <c r="F11" s="30">
-        <f t="shared" si="0"/>
         <v>5.8282191780821915</v>
       </c>
       <c r="G11" s="5"/>
@@ -7221,15 +7195,12 @@
         <v>0.1241</v>
       </c>
       <c r="D12" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C12</f>
         <v>372.3</v>
       </c>
       <c r="E12" s="31">
-        <f>D12/投資金額!$B$3*投資金額!$B$4</f>
         <v>7.1400000000000006</v>
       </c>
       <c r="F12" s="30">
-        <f t="shared" si="0"/>
         <v>7.1400000000000006</v>
       </c>
       <c r="G12" s="5"/>
@@ -7246,15 +7217,12 @@
         <v>0.1971</v>
       </c>
       <c r="D13" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C13</f>
         <v>591.29999999999995</v>
       </c>
       <c r="E13" s="31">
-        <f>D13/投資金額!$B$3*投資金額!$B$4</f>
         <v>11.34</v>
       </c>
       <c r="F13" s="30">
-        <f t="shared" si="0"/>
         <v>11.34</v>
       </c>
       <c r="G13" s="5"/>
@@ -7271,15 +7239,12 @@
         <v>0.23</v>
       </c>
       <c r="D14" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C14</f>
         <v>690</v>
       </c>
       <c r="E14" s="31">
-        <f>D14/投資金額!$B$3*投資金額!$B$4</f>
         <v>13.232876712328768</v>
       </c>
       <c r="F14" s="30">
-        <f t="shared" si="0"/>
         <v>13.232876712328768</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -7298,15 +7263,12 @@
         <v>0.1497</v>
       </c>
       <c r="D15" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C15</f>
         <v>449.1</v>
       </c>
       <c r="E15" s="31">
-        <f>D15/投資金額!$B$3*投資金額!$B$4</f>
         <v>8.6128767123287684</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="0"/>
         <v>8.6128767123287684</v>
       </c>
       <c r="G15" s="5"/>
@@ -7323,15 +7285,12 @@
         <v>7.6700000000000004E-2</v>
       </c>
       <c r="D16" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C16</f>
         <v>230.10000000000002</v>
       </c>
       <c r="E16" s="31">
-        <f>D16/投資金額!$B$3*投資金額!$B$4</f>
         <v>4.4128767123287682</v>
       </c>
       <c r="F16" s="30">
-        <f t="shared" si="0"/>
         <v>4.4128767123287682</v>
       </c>
       <c r="G16" s="5"/>
@@ -7348,15 +7307,12 @@
         <v>8.0299999999999996E-2</v>
       </c>
       <c r="D17" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C17</f>
         <v>240.89999999999998</v>
       </c>
       <c r="E17" s="31">
-        <f>D17/投資金額!$B$3*投資金額!$B$4</f>
         <v>4.6199999999999992</v>
       </c>
       <c r="F17" s="30">
-        <f t="shared" si="0"/>
         <v>4.6199999999999992</v>
       </c>
       <c r="G17" s="5"/>
@@ -7373,15 +7329,12 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="D18" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C18</f>
         <v>186.3</v>
       </c>
       <c r="E18" s="31">
-        <f>D18/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.572876712328767</v>
       </c>
       <c r="F18" s="30">
-        <f t="shared" si="0"/>
         <v>3.572876712328767</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -7400,15 +7353,12 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="D19" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C19</f>
         <v>197.1</v>
       </c>
       <c r="E19" s="31">
-        <f>D19/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.7800000000000002</v>
       </c>
       <c r="F19" s="30">
-        <f t="shared" si="0"/>
         <v>3.7800000000000002</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -7430,15 +7380,12 @@
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="D20" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C20</f>
         <v>208.20000000000002</v>
       </c>
       <c r="E20" s="31">
-        <f>D20/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.9928767123287674</v>
       </c>
       <c r="F20" s="30">
-        <f t="shared" si="0"/>
         <v>3.9928767123287674</v>
       </c>
       <c r="G20" s="5"/>
@@ -7457,15 +7404,12 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="D21" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C21</f>
         <v>186.3</v>
       </c>
       <c r="E21" s="31">
-        <f>D21/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.572876712328767</v>
       </c>
       <c r="F21" s="30">
-        <f t="shared" si="0"/>
         <v>3.572876712328767</v>
       </c>
       <c r="G21" s="5"/>
@@ -7484,15 +7428,12 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="D22" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C22</f>
         <v>186.3</v>
       </c>
       <c r="E22" s="31">
-        <f>D22/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.572876712328767</v>
       </c>
       <c r="F22" s="30">
-        <f t="shared" si="0"/>
         <v>3.572876712328767</v>
       </c>
       <c r="G22" s="5"/>
@@ -7511,15 +7452,12 @@
         <v>7.6700000000000004E-2</v>
       </c>
       <c r="D23" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C23</f>
         <v>230.10000000000002</v>
       </c>
       <c r="E23" s="31">
-        <f>D23/投資金額!$B$3*投資金額!$B$4</f>
         <v>4.4128767123287682</v>
       </c>
       <c r="F23" s="30">
-        <f t="shared" si="0"/>
         <v>4.4128767123287682</v>
       </c>
       <c r="G23" s="7" t="s">
@@ -7540,15 +7478,12 @@
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="D24" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C24</f>
         <v>208.20000000000002</v>
       </c>
       <c r="E24" s="31">
-        <f>D24/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.9928767123287674</v>
       </c>
       <c r="F24" s="30">
-        <f t="shared" si="0"/>
         <v>3.9928767123287674</v>
       </c>
       <c r="G24" s="5"/>
@@ -7567,15 +7502,12 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="D25" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C25</f>
         <v>197.1</v>
       </c>
       <c r="E25" s="31">
-        <f>D25/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.7800000000000002</v>
       </c>
       <c r="F25" s="30">
-        <f t="shared" si="0"/>
         <v>3.7800000000000002</v>
       </c>
       <c r="G25" s="5"/>
@@ -7594,15 +7526,12 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="D26" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C26</f>
         <v>186.3</v>
       </c>
       <c r="E26" s="31">
-        <f>D26/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.572876712328767</v>
       </c>
       <c r="F26" s="30">
-        <f t="shared" si="0"/>
         <v>3.572876712328767</v>
       </c>
       <c r="G26" s="5"/>
@@ -7621,15 +7550,12 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="D27" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C27</f>
         <v>197.1</v>
       </c>
       <c r="E27" s="31">
-        <f>D27/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.7800000000000002</v>
       </c>
       <c r="F27" s="30">
-        <f t="shared" si="0"/>
         <v>3.7800000000000002</v>
       </c>
       <c r="G27" s="7" t="s">
@@ -7650,15 +7576,12 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="D28" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C28</f>
         <v>186.3</v>
       </c>
       <c r="E28" s="31">
-        <f>D28/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.572876712328767</v>
       </c>
       <c r="F28" s="30">
-        <f t="shared" si="0"/>
         <v>3.572876712328767</v>
       </c>
       <c r="G28" s="5"/>
@@ -7677,15 +7600,12 @@
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="D29" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C29</f>
         <v>175.2</v>
       </c>
       <c r="E29" s="31">
-        <f>D29/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.36</v>
       </c>
       <c r="F29" s="30">
-        <f t="shared" si="0"/>
         <v>3.36</v>
       </c>
       <c r="G29" s="29" t="s">
@@ -7706,15 +7626,12 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="D30" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C30</f>
         <v>186.3</v>
       </c>
       <c r="E30" s="31">
-        <f>D30/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.572876712328767</v>
       </c>
       <c r="F30" s="30">
-        <f t="shared" si="0"/>
         <v>3.572876712328767</v>
       </c>
       <c r="G30" s="5"/>
@@ -7733,15 +7650,12 @@
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="D31" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C31</f>
         <v>175.2</v>
       </c>
       <c r="E31" s="31">
-        <f>D31/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.36</v>
       </c>
       <c r="F31" s="30">
-        <f t="shared" si="0"/>
         <v>3.36</v>
       </c>
       <c r="G31" s="5"/>
@@ -7760,15 +7674,12 @@
         <v>5.4800000000000001E-2</v>
       </c>
       <c r="D32" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C32</f>
         <v>164.4</v>
       </c>
       <c r="E32" s="31">
-        <f>D32/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.1528767123287671</v>
       </c>
       <c r="F32" s="30">
-        <f t="shared" si="0"/>
         <v>3.1528767123287671</v>
       </c>
       <c r="G32" s="5"/>
@@ -7787,15 +7698,12 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="D33" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C33</f>
         <v>186.3</v>
       </c>
       <c r="E33" s="31">
-        <f>D33/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.572876712328767</v>
       </c>
       <c r="F33" s="30">
-        <f t="shared" si="0"/>
         <v>3.572876712328767</v>
       </c>
       <c r="G33" s="5"/>
@@ -7814,15 +7722,12 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="D34" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C34</f>
         <v>197.1</v>
       </c>
       <c r="E34" s="31">
-        <f>D34/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.7800000000000002</v>
       </c>
       <c r="F34" s="30">
-        <f t="shared" si="0"/>
         <v>3.7800000000000002</v>
       </c>
       <c r="G34" s="5"/>
@@ -7841,15 +7746,12 @@
         <v>5.4800000000000001E-2</v>
       </c>
       <c r="D35" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C35</f>
         <v>164.4</v>
       </c>
       <c r="E35" s="31">
-        <f>D35/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.1528767123287671</v>
       </c>
       <c r="F35" s="30">
-        <f t="shared" si="0"/>
         <v>3.1528767123287671</v>
       </c>
       <c r="G35" s="5"/>
@@ -7868,15 +7770,12 @@
         <v>6.5699999999999995E-2</v>
       </c>
       <c r="D36" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C36</f>
         <v>197.1</v>
       </c>
       <c r="E36" s="31">
-        <f>D36/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.7800000000000002</v>
       </c>
       <c r="F36" s="30">
-        <f t="shared" si="0"/>
         <v>3.7800000000000002</v>
       </c>
       <c r="G36" s="13" t="s">
@@ -7897,15 +7796,12 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="D37" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C37</f>
         <v>186.3</v>
       </c>
       <c r="E37" s="31">
-        <f>D37/投資金額!$B$3*投資金額!$B$4</f>
         <v>3.572876712328767</v>
       </c>
       <c r="F37" s="30">
-        <f t="shared" si="0"/>
         <v>3.572876712328767</v>
       </c>
       <c r="G37" s="13" t="s">
@@ -7926,15 +7822,12 @@
         <v>8.0299999999999996E-2</v>
       </c>
       <c r="D38" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C38</f>
         <v>240.89999999999998</v>
       </c>
       <c r="E38" s="31">
-        <f>D38/投資金額!$B$3*投資金額!$B$4</f>
         <v>4.6199999999999992</v>
       </c>
       <c r="F38" s="30">
-        <f t="shared" si="0"/>
         <v>4.6199999999999992</v>
       </c>
       <c r="G38" s="13"/>
@@ -7953,15 +7846,12 @@
         <v>8.0299999999999996E-2</v>
       </c>
       <c r="D39" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C39</f>
         <v>240.89999999999998</v>
       </c>
       <c r="E39" s="31">
-        <f>D39/投資金額!$B$3*投資金額!$B$4</f>
         <v>4.6199999999999992</v>
       </c>
       <c r="F39" s="30">
-        <f t="shared" si="0"/>
         <v>4.6199999999999992</v>
       </c>
       <c r="G39" s="13"/>
@@ -7980,15 +7870,12 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="D40" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C40</f>
         <v>252.00000000000003</v>
       </c>
       <c r="E40" s="31">
-        <f>D40/投資金額!$B$3*投資金額!$B$4</f>
         <v>4.8328767123287673</v>
       </c>
       <c r="F40" s="30">
-        <f t="shared" si="0"/>
         <v>4.8328767123287673</v>
       </c>
       <c r="G40" s="13"/>
@@ -7996,7 +7883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A41" s="43">
         <v>40</v>
       </c>
@@ -8007,18 +7894,17 @@
         <v>8.7599999999999997E-2</v>
       </c>
       <c r="D41" s="31">
-        <f>投資金額!$B$2*'收益紀錄表(new)'!C41</f>
         <v>262.8</v>
       </c>
       <c r="E41" s="31">
-        <f>D41/投資金額!$B$3*投資金額!$B$4</f>
         <v>5.0400000000000009</v>
       </c>
       <c r="F41" s="30">
-        <f t="shared" si="0"/>
         <v>5.0400000000000009</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="H41" s="40">
         <v>5</v>
       </c>
@@ -8040,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F53" si="0">E42</f>
         <v>0</v>
       </c>
       <c r="G42" s="13"/>
@@ -8310,8 +8196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E68BAC-C428-4C7D-8257-59E674D985DD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8327,7 +8213,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8351,7 +8237,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="11">
-        <v>3000</v>
+        <v>33000</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -8457,7 +8343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F70" sqref="F70:F71"/>
     </sheetView>
   </sheetViews>
@@ -8512,1135 +8398,1135 @@
       <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="49">
         <v>43209</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="46">
         <v>5.81</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="46">
         <v>174.3</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="46">
         <v>3.34</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="55">
+      <c r="K2" s="54"/>
+      <c r="L2" s="53">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="55"/>
+      <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="49">
         <v>43216</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="46">
         <v>6.13</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="46">
         <v>183.9</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="46">
         <v>3.52</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="J4" s="53" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54">
+      <c r="K4" s="51"/>
+      <c r="L4" s="52">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="54"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>3</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="49">
         <v>43223</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="46">
         <v>6.02</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="46">
         <v>180.6</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="46">
         <v>3.46</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="J6" s="53" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="J6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54">
+      <c r="K6" s="51"/>
+      <c r="L6" s="52">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="54"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>4</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="49">
         <v>43230</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="46">
         <v>5.96</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="46">
         <v>178.8</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="46">
         <v>3.42</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>5</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="49">
         <v>43237</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="46">
         <v>5.27</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="46">
         <v>158.1</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="46">
         <v>3.03</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>6</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="49">
         <v>43244</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="46">
         <v>6.13</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="46">
         <v>183.9</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="46">
         <v>3.52</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>7</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="49">
         <v>43251</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="46">
         <v>6.13</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="46">
         <v>183.9</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="46">
         <v>3.52</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>8</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="49">
         <v>43258</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="46">
         <v>6.15</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="46">
         <v>184.5</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="46">
         <v>3.53</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>9</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="49">
         <v>43265</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="46">
         <v>9.27</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="46">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="46">
         <v>5.33</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="57" t="s">
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="57"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46">
+      <c r="A20" s="45">
         <v>10</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="49">
         <v>43268</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="46">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="46">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="46">
         <v>5.82</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46">
+      <c r="A22" s="45">
         <v>11</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="49">
         <v>43279</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="46">
         <v>12.41</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="46">
         <v>372.3</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="46">
         <v>7.14</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+      <c r="A24" s="45">
         <v>12</v>
       </c>
-      <c r="B24" s="47">
+      <c r="B24" s="49">
         <v>43286</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="46">
         <v>19.71</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="46">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="46">
         <v>11.34</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46">
+      <c r="A26" s="45">
         <v>13</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="49">
         <v>43293</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="46">
         <v>23</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="46">
         <v>690</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="46">
         <v>13.23</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="57" t="s">
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="57"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46">
+      <c r="A28" s="45">
         <v>14</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="49">
         <v>43300</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="46">
         <v>14.97</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="46">
         <v>449.1</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="46">
         <v>8.61</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46">
+      <c r="A30" s="45">
         <v>15</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="49">
         <v>43307</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="46">
         <v>7.67</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="46">
         <v>230.1</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="46">
         <v>4.41</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46">
+      <c r="A32" s="45">
         <v>16</v>
       </c>
-      <c r="B32" s="47">
+      <c r="B32" s="49">
         <v>43314</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="46">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="46">
         <v>240.9</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="46">
         <v>4.62</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46">
+      <c r="A34" s="45">
         <v>17</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="49">
         <v>43321</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="46">
         <v>6.21</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="46">
         <v>186.3</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="46">
         <v>3.5</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="46">
         <v>3000</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="57" t="s">
+      <c r="G34" s="46"/>
+      <c r="H34" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="57"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46">
+      <c r="A36" s="45">
         <v>18</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="49">
         <v>43328</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="46">
         <v>6.57</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="46">
         <v>197.1</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="46">
         <v>3.78</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45">
+      <c r="F36" s="46"/>
+      <c r="G36" s="46">
         <v>4</v>
       </c>
-      <c r="H36" s="45"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46">
+      <c r="A38" s="45">
         <v>19</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="49">
         <v>43335</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="46">
         <v>6.94</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="46">
         <v>208.2</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="46">
         <v>3.99</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45">
+      <c r="F38" s="46"/>
+      <c r="G38" s="46">
         <v>4</v>
       </c>
-      <c r="H38" s="45"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46">
+      <c r="A40" s="45">
         <v>20</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="49">
         <v>43342</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="46">
         <v>6.21</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="46">
         <v>186.3</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="46">
         <v>3.57</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45">
+      <c r="F40" s="46"/>
+      <c r="G40" s="46">
         <v>4</v>
       </c>
-      <c r="H40" s="45"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46">
+      <c r="A42" s="45">
         <v>21</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="49">
         <v>43349</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="46">
         <v>6.21</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="46">
         <v>186.3</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="46">
         <v>3.57</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45">
+      <c r="F42" s="46"/>
+      <c r="G42" s="46">
         <v>4</v>
       </c>
-      <c r="H42" s="45"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46">
+      <c r="A44" s="45">
         <v>22</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="49">
         <v>43356</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="46">
         <v>7.67</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="46">
         <v>230.1</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="46">
         <v>4.41</v>
       </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45">
+      <c r="F44" s="46"/>
+      <c r="G44" s="46">
         <v>4</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="50"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="55"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="46">
+      <c r="A46" s="45">
         <v>23</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="49">
         <v>43363</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="46">
         <v>6.94</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="46">
         <v>208.2</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="46">
         <v>3.99</v>
       </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45">
+      <c r="F46" s="46"/>
+      <c r="G46" s="46">
         <v>4</v>
       </c>
-      <c r="H46" s="45"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="46">
+      <c r="A48" s="45">
         <v>24</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="49">
         <v>43370</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="46">
         <v>6.57</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="46">
         <v>197.1</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="46">
         <v>3.78</v>
       </c>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45">
+      <c r="F48" s="46"/>
+      <c r="G48" s="46">
         <v>4</v>
       </c>
-      <c r="H48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="46"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="46">
+      <c r="A50" s="45">
         <v>25</v>
       </c>
-      <c r="B50" s="47">
+      <c r="B50" s="49">
         <v>43377</v>
       </c>
-      <c r="C50" s="45">
+      <c r="C50" s="46">
         <v>6.21</v>
       </c>
-      <c r="D50" s="45">
+      <c r="D50" s="46">
         <v>186.3</v>
       </c>
-      <c r="E50" s="45">
+      <c r="E50" s="46">
         <v>3.57</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45">
+      <c r="F50" s="46"/>
+      <c r="G50" s="46">
         <v>4</v>
       </c>
-      <c r="H50" s="45"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="46"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46">
+      <c r="A52" s="45">
         <v>26</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="49">
         <v>43384</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="46">
         <v>6.57</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="46">
         <v>197.1</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="46">
         <v>3.78</v>
       </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45">
+      <c r="F52" s="46"/>
+      <c r="G52" s="46">
         <v>4</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="50"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="55"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46">
+      <c r="A54" s="45">
         <v>27</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="49">
         <v>43391</v>
       </c>
-      <c r="C54" s="45">
+      <c r="C54" s="46">
         <v>6.21</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54" s="46">
         <v>186.3</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="46">
         <v>3.57</v>
       </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45">
+      <c r="F54" s="46"/>
+      <c r="G54" s="46">
         <v>4</v>
       </c>
-      <c r="H54" s="45"/>
+      <c r="H54" s="46"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="46">
+      <c r="A56" s="45">
         <v>28</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="56">
         <v>43398</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="57">
         <v>5.84</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="57">
         <v>175.2</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="57">
         <v>3.36</v>
       </c>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51">
+      <c r="F56" s="57"/>
+      <c r="G56" s="57">
         <v>3</v>
       </c>
-      <c r="H56" s="51" t="s">
+      <c r="H56" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="46">
+      <c r="A58" s="45">
         <v>29</v>
       </c>
-      <c r="B58" s="47">
+      <c r="B58" s="49">
         <v>43405</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="46">
         <v>6.21</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="46">
         <v>186.3</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="46">
         <v>3.57</v>
       </c>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45">
+      <c r="F58" s="46"/>
+      <c r="G58" s="46">
         <v>4</v>
       </c>
-      <c r="H58" s="45"/>
+      <c r="H58" s="46"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="46"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="46">
+      <c r="A60" s="45">
         <v>30</v>
       </c>
-      <c r="B60" s="47">
+      <c r="B60" s="49">
         <v>43413</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="46">
         <v>5.84</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="57">
         <v>175.2</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="57">
         <v>3.36</v>
       </c>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51">
+      <c r="F60" s="57"/>
+      <c r="G60" s="57">
         <v>3</v>
       </c>
-      <c r="H60" s="45"/>
+      <c r="H60" s="46"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="45"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="46"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="46">
+      <c r="A62" s="45">
         <v>31</v>
       </c>
-      <c r="B62" s="47">
+      <c r="B62" s="49">
         <v>43419</v>
       </c>
-      <c r="C62" s="45">
+      <c r="C62" s="46">
         <v>5.48</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="57">
         <v>164.4</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="57">
         <v>3.15</v>
       </c>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51">
+      <c r="F62" s="57"/>
+      <c r="G62" s="57">
         <v>3</v>
       </c>
-      <c r="H62" s="45"/>
+      <c r="H62" s="46"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="45"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="46"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46">
+      <c r="A64" s="45">
         <v>32</v>
       </c>
-      <c r="B64" s="47">
+      <c r="B64" s="49">
         <v>43426</v>
       </c>
-      <c r="C64" s="45">
+      <c r="C64" s="46">
         <v>6.21</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="46">
         <v>186.3</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="46">
         <v>3.57</v>
       </c>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45">
+      <c r="F64" s="46"/>
+      <c r="G64" s="46">
         <v>4</v>
       </c>
-      <c r="H64" s="45"/>
+      <c r="H64" s="46"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="46">
+      <c r="A66" s="45">
         <v>33</v>
       </c>
-      <c r="B66" s="47">
+      <c r="B66" s="49">
         <v>43433</v>
       </c>
-      <c r="C66" s="45">
+      <c r="C66" s="46">
         <v>6.57</v>
       </c>
-      <c r="D66" s="45">
+      <c r="D66" s="46">
         <v>197.1</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E66" s="46">
         <v>3.78</v>
       </c>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45">
+      <c r="F66" s="46"/>
+      <c r="G66" s="46">
         <v>4</v>
       </c>
-      <c r="H66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="46"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="46">
+      <c r="A68" s="45">
         <v>33</v>
       </c>
-      <c r="B68" s="47">
+      <c r="B68" s="49">
         <v>43440</v>
       </c>
-      <c r="C68" s="45">
+      <c r="C68" s="46">
         <v>5.48</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="57">
         <v>164.4</v>
       </c>
-      <c r="E68" s="51">
+      <c r="E68" s="57">
         <v>3.15</v>
       </c>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51">
+      <c r="F68" s="57"/>
+      <c r="G68" s="57">
         <v>3</v>
       </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="46"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="46"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="45"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="46"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="46">
+      <c r="A70" s="45">
         <v>33</v>
       </c>
-      <c r="B70" s="47">
+      <c r="B70" s="49">
         <v>43447</v>
       </c>
-      <c r="C70" s="45">
+      <c r="C70" s="46">
         <v>6.57</v>
       </c>
-      <c r="D70" s="45">
+      <c r="D70" s="46">
         <v>197.1</v>
       </c>
-      <c r="E70" s="45">
+      <c r="E70" s="46">
         <v>3.78</v>
       </c>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45">
+      <c r="F70" s="46"/>
+      <c r="G70" s="46">
         <v>4</v>
       </c>
-      <c r="H70" s="50" t="s">
+      <c r="H70" s="55" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -9648,113 +9534,257 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="50"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="55"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="46">
+      <c r="A72" s="45">
         <v>34</v>
       </c>
-      <c r="B72" s="47">
+      <c r="B72" s="49">
         <v>43454</v>
       </c>
-      <c r="C72" s="45">
+      <c r="C72" s="46">
         <v>6.21</v>
       </c>
-      <c r="D72" s="45">
+      <c r="D72" s="46">
         <v>186.3</v>
       </c>
-      <c r="E72" s="45">
+      <c r="E72" s="46">
         <v>3.57</v>
       </c>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45">
+      <c r="F72" s="46"/>
+      <c r="G72" s="46">
         <v>4</v>
       </c>
-      <c r="H72" s="48"/>
+      <c r="H72" s="58"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="46"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="49"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B14:B15"/>
@@ -9779,214 +9809,70 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
